--- a/xlsx/现代主义文学_intext.xlsx
+++ b/xlsx/现代主义文学_intext.xlsx
@@ -29,7 +29,7 @@
     <t>象征主义文学</t>
   </si>
   <si>
-    <t>政策_政策_美國_现代主义文学</t>
+    <t>政策_政策_美国_现代主义文学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A8%E7%8E%B0%E4%B8%BB%E4%B9%89%E6%96%87%E5%AD%A6</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E4%B8%BB%E7%BE%A9%E6%96%87%E5%AD%B8</t>
   </si>
   <si>
-    <t>古典主義文學</t>
+    <t>古典主义文学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%AA%E6%BC%AB%E4%B8%BB%E4%B9%89%E6%96%87%E5%AD%A6</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BD%9B%E6%84%8F%E8%AD%98</t>
   </si>
   <si>
-    <t>潛意識</t>
+    <t>潜意识</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AF%86%E6%B5%81%E5%B0%8F%E8%AF%B4</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8B%89%E7%BE%8E</t>
   </si>
   <si>
-    <t>馬拉美</t>
+    <t>马拉美</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%89%E6%85%88</t>
   </si>
   <si>
-    <t>葉慈</t>
+    <t>叶慈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AF%AD</t>
@@ -515,7 +515,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%98%E5%9C%A8%E4%B8%BB%E7%BE%A9%E6%96%87%E5%AD%B8</t>
   </si>
   <si>
-    <t>存在主義文學</t>
+    <t>存在主义文学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%97%E6%AD%8C</t>
@@ -563,7 +563,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%81%A9%E6%96%AF%E7%89%B9%C2%B7%E6%89%98%E5%8B%92%E7%88%BE</t>
   </si>
   <si>
-    <t>恩斯特·托勒爾</t>
+    <t>恩斯特·托勒尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94</t>
@@ -581,7 +581,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%9B%85%E5%8F%AF%E5%A4%AB%E6%96%AF%E5%9F%BA</t>
   </si>
   <si>
-    <t>馬雅可夫斯基</t>
+    <t>马雅可夫斯基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%A6</t>
@@ -623,7 +623,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%8E%84%E7%88%BE</t>
   </si>
   <si>
-    <t>羅厄爾</t>
+    <t>罗厄尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E8%BE%BE%E4%B8%BB%E4%B9%89</t>
@@ -677,7 +677,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>古典主義</t>
+    <t>古典主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%B4%9B%E5%85%8B%E6%96%87%E5%AD%A6</t>
@@ -695,7 +695,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%B1%A1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>意象主義</t>
+    <t>意象主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%92%E8%AF%9E%E6%B4%BE%E6%88%8F%E5%89%A7</t>
@@ -725,43 +725,43 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AD%94%E5%B9%BB%E7%8F%BE%E5%AF%A6%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>魔幻現實主義</t>
+    <t>魔幻现实主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%8F%BE%E4%BB%A3%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>Template talk-現代主義</t>
+    <t>Template talk-现代主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>現代主義</t>
+    <t>现代主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%9A%E6%9C%9F%E7%8F%BE%E4%BB%A3%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>晚期現代主義</t>
+    <t>晚期现代主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E6%80%A7</t>
   </si>
   <si>
-    <t>現代性</t>
+    <t>现代性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%9A%E6%9C%9F%E7%8F%BE%E4%BB%A3%E6%80%A7</t>
   </si>
   <si>
-    <t>晚期現代性</t>
+    <t>晚期现代性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E5%8F%B2</t>
   </si>
   <si>
-    <t>現代史</t>
+    <t>现代史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%B0%E4%BB%A3%E8%89%BA%E6%9C%AF</t>
@@ -773,7 +773,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E8%88%9E</t>
   </si>
   <si>
-    <t>現代舞</t>
+    <t>现代舞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%B0%E4%BB%A3%E4%B8%BB%E4%B9%89%E5%BB%BA%E7%AD%91</t>
@@ -785,19 +785,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%AA%E6%BC%AB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>浪漫主義</t>
+    <t>浪漫主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E5%AF%A6%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>現實主義</t>
+    <t>现实主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E7%8F%BE%E4%BB%A3%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>後現代主義</t>
+    <t>后现代主义</t>
   </si>
 </sst>
 </file>
